--- a/Data/EC/NIT-9017828252.xlsx
+++ b/Data/EC/NIT-9017828252.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF9D2084-5EA4-4211-BD84-55887CEABBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA287482-7C20-4078-BEE9-973ABE7F18B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{084D7F8B-4DE5-4AD2-ADE0-66728E506C1E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{389D7E78-4C05-4E2B-A27C-1DD6EEA83E45}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,15 +65,27 @@
     <t>CC</t>
   </si>
   <si>
+    <t>45760135</t>
+  </si>
+  <si>
+    <t>DAYLESTER CASARRUBIA LOPEZ</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
     <t>39280539</t>
   </si>
   <si>
     <t>ADRIANA LUCIA CRUZ LOPEZ</t>
   </si>
   <si>
-    <t>2505</t>
-  </si>
-  <si>
     <t>1010128177</t>
   </si>
   <si>
@@ -84,15 +96,6 @@
   </si>
   <si>
     <t>ANDRES ANTONIO CASARRUBIA LOPEZ</t>
-  </si>
-  <si>
-    <t>45760135</t>
-  </si>
-  <si>
-    <t>DAYLESTER CASARRUBIA LOPEZ</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -506,7 +509,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F6BF730-8BAF-E157-D4D5-8D90CD9C0407}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8B7F5C9-1534-DE1F-AFE0-637011602EF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -857,8 +860,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B249CD8C-3236-488A-BB40-3B530B34BF11}">
-  <dimension ref="B2:J29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C10B2C-143A-430F-977A-27AD334F9D3E}">
+  <dimension ref="B2:J33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -882,7 +885,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -927,7 +930,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -959,12 +962,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>632000</v>
+        <v>948000</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -975,17 +978,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5">
         <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F13" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1012,13 +1015,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>24</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1035,10 +1038,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>88000</v>
+        <v>76000</v>
       </c>
       <c r="G16" s="18">
-        <v>2200000</v>
+        <v>1900000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1049,13 +1052,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>76000</v>
@@ -1072,13 +1075,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>76000</v>
@@ -1095,19 +1098,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>76000</v>
+        <v>88000</v>
       </c>
       <c r="G19" s="18">
-        <v>1900000</v>
+        <v>2200000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1118,13 +1121,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F20" s="18">
         <v>88000</v>
@@ -1141,19 +1144,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F21" s="18">
-        <v>76000</v>
+        <v>88000</v>
       </c>
       <c r="G21" s="18">
-        <v>1900000</v>
+        <v>2200000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1170,7 +1173,7 @@
         <v>17</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
         <v>76000</v>
@@ -1183,56 +1186,148 @@
       <c r="J22" s="20"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="22" t="s">
+      <c r="C23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="18">
+        <v>76000</v>
+      </c>
+      <c r="G23" s="18">
+        <v>1900000</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="18">
+        <v>76000</v>
+      </c>
+      <c r="G24" s="18">
+        <v>1900000</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="24">
+      <c r="D25" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="18">
         <v>76000</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G25" s="18">
         <v>1900000</v>
       </c>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="26"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="32" t="s">
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="18">
+        <v>76000</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1900000</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="24">
+        <v>76000</v>
+      </c>
+      <c r="G27" s="24">
+        <v>1900000</v>
+      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="26"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="32"/>
+      <c r="H32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="H28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="32"/>
-      <c r="H29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="C33" s="32"/>
+      <c r="H33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H32:J32"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9017828252.xlsx
+++ b/Data/EC/NIT-9017828252.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA287482-7C20-4078-BEE9-973ABE7F18B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66135B41-D4B9-4DCF-A63E-D4FA79D4E99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{389D7E78-4C05-4E2B-A27C-1DD6EEA83E45}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B9A66EDE-4F84-4923-B8D1-2BC7368A5C7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="34">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,31 +71,40 @@
     <t>DAYLESTER CASARRUBIA LOPEZ</t>
   </si>
   <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>39280539</t>
+  </si>
+  <si>
+    <t>ADRIANA LUCIA CRUZ LOPEZ</t>
+  </si>
+  <si>
+    <t>1010128177</t>
+  </si>
+  <si>
+    <t>JEFERSON ANDRES PEREZ SALCEDO</t>
+  </si>
+  <si>
+    <t>3811397</t>
+  </si>
+  <si>
+    <t>ANDRES ANTONIO CASARRUBIA LOPEZ</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>39280539</t>
-  </si>
-  <si>
-    <t>ADRIANA LUCIA CRUZ LOPEZ</t>
-  </si>
-  <si>
-    <t>1010128177</t>
-  </si>
-  <si>
-    <t>JEFERSON ANDRES PEREZ SALCEDO</t>
-  </si>
-  <si>
-    <t>3811397</t>
-  </si>
-  <si>
-    <t>ANDRES ANTONIO CASARRUBIA LOPEZ</t>
+    <t>2508</t>
+  </si>
+  <si>
+    <t>1043298950</t>
+  </si>
+  <si>
+    <t>JOSUE RICARDO FUENTES PACHECO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -194,7 +203,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -207,9 +218,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -409,23 +418,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -453,10 +462,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -509,7 +518,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8B7F5C9-1534-DE1F-AFE0-637011602EF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F80AE06-43C3-8359-83D8-1FD27D18068E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -860,8 +869,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C10B2C-143A-430F-977A-27AD334F9D3E}">
-  <dimension ref="B2:J33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5CCBA2-6C7A-419E-A2D8-8400B61E77E0}">
+  <dimension ref="B2:J38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -885,7 +894,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -930,7 +939,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -962,12 +971,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>948000</v>
+        <v>1320940</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -978,17 +987,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F13" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1015,13 +1024,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1052,19 +1061,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>76000</v>
+        <v>88000</v>
       </c>
       <c r="G17" s="18">
-        <v>1900000</v>
+        <v>2200000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1075,13 +1084,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
         <v>76000</v>
@@ -1098,19 +1107,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>88000</v>
+        <v>76000</v>
       </c>
       <c r="G19" s="18">
-        <v>2200000</v>
+        <v>1900000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1121,19 +1130,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
-        <v>88000</v>
+        <v>76000</v>
       </c>
       <c r="G20" s="18">
-        <v>2200000</v>
+        <v>1900000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1144,13 +1153,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>88000</v>
@@ -1167,13 +1176,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
         <v>76000</v>
@@ -1196,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>76000</v>
@@ -1213,13 +1222,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>76000</v>
@@ -1236,19 +1245,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F25" s="18">
-        <v>76000</v>
+        <v>88000</v>
       </c>
       <c r="G25" s="18">
-        <v>1900000</v>
+        <v>2200000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1259,13 +1268,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D26" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F26" s="18">
         <v>76000</v>
@@ -1278,56 +1287,171 @@
       <c r="J26" s="20"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="23" t="s">
+      <c r="B27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="F27" s="18">
+        <v>76000</v>
+      </c>
+      <c r="G27" s="18">
+        <v>1900000</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="18">
+        <v>76000</v>
+      </c>
+      <c r="G28" s="18">
+        <v>1900000</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="24">
+      <c r="E29" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="18">
+        <v>88000</v>
+      </c>
+      <c r="G29" s="18">
+        <v>2200000</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="18">
         <v>76000</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G30" s="18">
         <v>1900000</v>
       </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="26"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="18">
+        <v>76000</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1900000</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="32"/>
-      <c r="H32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="32"/>
-      <c r="H33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="B32" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G32" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="26"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="32"/>
+      <c r="H37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="32"/>
+      <c r="H38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H37:J37"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
